--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.137765</t>
+          <t>2025-03-15T21:10:27.346654</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.145201</t>
+          <t>2025-03-15T21:10:27.346654</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.153499</t>
+          <t>2025-03-15T21:10:27.346654</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.159540</t>
+          <t>2025-03-15T21:10:27.346654</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.165728</t>
+          <t>2025-03-15T21:10:27.346654</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.173087</t>
+          <t>2025-03-15T21:10:27.346654</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.178660</t>
+          <t>2025-03-15T21:10:27.346654</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.184775</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.189975</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.197908</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.203854</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.208251</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.214443</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.220600</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1509,7 +1509,7 @@
         <v>555988</v>
       </c>
       <c r="H16" t="n">
-        <v>4052.652145857761</v>
+        <v>4033</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1538,11 +1538,11 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.227278</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>137.1911479173653</v>
+        <v>137.8596578229606</v>
       </c>
     </row>
     <row r="17">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.231968</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.237754</t>
+          <t>2025-03-15T21:10:27.362280</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>25987</v>
+        <v>26096</v>
       </c>
       <c r="H19" t="n">
         <v>328</v>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.244852</t>
+          <t>2025-03-15T21:10:27.377900</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>79.22865853658537</v>
+        <v>79.5609756097561</v>
       </c>
     </row>
     <row r="20">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.252355</t>
+          <t>2025-03-15T21:10:27.377900</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.257762</t>
+          <t>2025-03-15T21:10:27.377900</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.263673</t>
+          <t>2025-03-15T21:10:27.377900</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.268387</t>
+          <t>2025-03-15T21:10:27.377900</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.274430</t>
+          <t>2025-03-15T21:10:27.377900</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.279657</t>
+          <t>2025-03-15T21:10:27.377900</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.285035</t>
+          <t>2025-03-15T21:10:27.377900</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.291934</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.297294</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>["Skopje"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.303333</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.307813</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.314496</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.321479</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.328029</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.332693</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.339545</t>
+          <t>2025-03-15T21:10:27.393528</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.344855</t>
+          <t>2025-03-15T21:10:27.409158</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.350575</t>
+          <t>2025-03-15T21:10:27.409158</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>102334403</v>
+        <v>103940191</v>
       </c>
       <c r="H38" t="n">
         <v>1002450</v>
@@ -3056,11 +3056,11 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.357699</t>
+          <t>2025-03-15T21:10:27.409158</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>102.0842964736396</v>
+        <v>103.6861599082249</v>
       </c>
     </row>
     <row r="39">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.364484</t>
+          <t>2025-03-15T21:10:27.409158</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.370485</t>
+          <t>2025-03-15T21:10:27.409158</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.376909</t>
+          <t>2025-03-15T21:10:27.409158</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.386025</t>
+          <t>2025-03-15T21:10:27.409158</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.391739</t>
+          <t>2025-03-15T21:10:27.409158</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Singapore"]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.398080</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.405884</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.410433</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.417125</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.422807</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["London"]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.427629</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.433130</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.438284</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.444509</t>
+          <t>2025-03-15T21:10:27.424783</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.451677</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.458069</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.466081</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.471837</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.477574</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.483862</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.488232</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.497774</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.504836</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.512548</t>
+          <t>2025-03-15T21:10:27.440398</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.519637</t>
+          <t>2025-03-15T21:10:27.456029</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.525769</t>
+          <t>2025-03-15T21:10:27.456029</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.533311</t>
+          <t>2025-03-15T21:10:27.456029</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4959,7 +4959,7 @@
         <v>36910558</v>
       </c>
       <c r="H66" t="n">
-        <v>446550</v>
+        <v>456230.4782380175</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.541424</t>
+          <t>2025-03-15T21:10:27.456029</t>
         </is>
       </c>
       <c r="O66" t="n">
-        <v>82.65716717052962</v>
+        <v>80.90331479507951</v>
       </c>
     </row>
     <row r="67">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.547681</t>
+          <t>2025-03-15T21:10:27.456029</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.553019</t>
+          <t>2025-03-15T21:10:27.456029</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.559899</t>
+          <t>2025-03-15T21:10:27.456029</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.565448</t>
+          <t>2025-03-15T21:10:27.456029</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.571951</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.578752</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.586986</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.594690</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.601820</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.609758</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.617483</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.623322</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.631238</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.641796</t>
+          <t>2025-03-15T21:10:27.471647</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.648742</t>
+          <t>2025-03-15T21:10:27.487284</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.655039</t>
+          <t>2025-03-15T21:10:27.487284</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.660066</t>
+          <t>2025-03-15T21:10:27.487284</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.667946</t>
+          <t>2025-03-15T21:10:27.487284</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.674670</t>
+          <t>2025-03-15T21:10:27.487284</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.682794</t>
+          <t>2025-03-15T21:10:27.487284</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.689559</t>
+          <t>2025-03-15T21:10:27.487284</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.696034</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.701893</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.707923</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.723983</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.732929</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.739863</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.746356</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.753050</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.760724</t>
+          <t>2025-03-15T21:10:27.502908</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.767034</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.774877</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.782536</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.787850</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.794641</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.801481</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.808757</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.814768</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.822860</t>
+          <t>2025-03-15T21:10:27.518525</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.833231</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.841436</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.847953</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.854598</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.861439</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.869774</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.876723</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.882299</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.887985</t>
+          <t>2025-03-15T21:10:27.534148</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.892540</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.897973</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.903650</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.909484</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.916310</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.921846</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.927156</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.932717</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.938013</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.944178</t>
+          <t>2025-03-15T21:10:27.549773</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.949784</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.956562</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.963010</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.969448</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.975785</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.981448</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.985813</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.991786</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Australia and New Zealand</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:18.997102</t>
+          <t>2025-03-15T21:10:27.565402</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.004756</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.011054</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9786,7 +9786,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>11523</v>
+        <v>11792</v>
       </c>
       <c r="H136" t="n">
         <v>26</v>
@@ -9818,11 +9818,11 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.016427</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O136" t="n">
-        <v>443.1923076923077</v>
+        <v>453.5384615384615</v>
       </c>
     </row>
     <row r="137">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.022877</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.030881</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.036828</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.041728</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.046932</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.056011</t>
+          <t>2025-03-15T21:10:27.581027</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.061401</t>
+          <t>2025-03-15T21:10:27.596651</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.066658</t>
+          <t>2025-03-15T21:10:27.596651</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.071764</t>
+          <t>2025-03-15T21:10:27.596651</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.077273</t>
+          <t>2025-03-15T21:10:27.596651</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.083455</t>
+          <t>2025-03-15T21:10:27.596651</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.088064</t>
+          <t>2025-03-15T21:10:27.596651</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -10686,7 +10686,7 @@
         <v>13132792</v>
       </c>
       <c r="H149" t="n">
-        <v>239380.8728852471</v>
+        <v>245857</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -10715,11 +10715,11 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.092836</t>
+          <t>2025-03-15T21:10:27.596651</t>
         </is>
       </c>
       <c r="O149" t="n">
-        <v>54.86149265691548</v>
+        <v>53.41638432096707</v>
       </c>
     </row>
     <row r="150">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.101437</t>
+          <t>2025-03-15T21:10:27.596651</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.107175</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.111957</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.117255</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.123168</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.129710</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.135445</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.142557</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11300,11 +11300,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Western Africa</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>8095686</v>
+        <v>8278737</v>
       </c>
       <c r="H158" t="n">
         <v>56785</v>
@@ -11336,11 +11336,11 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.149580</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O158" t="n">
-        <v>142.5673329224267</v>
+        <v>145.7909130932464</v>
       </c>
     </row>
     <row r="159">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.155181</t>
+          <t>2025-03-15T21:10:27.612277</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.162534</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.168083</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.174524</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.180404</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.187057</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>["Bucharest"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.193309</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.199491</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.205498</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -11990,7 +11990,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>South-Eastern Asia</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.210718</t>
+          <t>2025-03-15T21:10:27.627910</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.216498</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.222067</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.226654</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.232710</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.241252</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.250622</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.256847</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12549,7 +12549,7 @@
         <v>31255435</v>
       </c>
       <c r="H176" t="n">
-        <v>801590</v>
+        <v>807435.5331000228</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -12578,11 +12578,11 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.262907</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O176" t="n">
-        <v>38.99179755236467</v>
+        <v>38.70951143306715</v>
       </c>
     </row>
     <row r="177">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.269523</t>
+          <t>2025-03-15T21:10:27.643529</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.276326</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.283768</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.291657</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.297457</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.303251</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.310760</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.318511</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.325872</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.333687</t>
+          <t>2025-03-15T21:10:27.659155</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.339750</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.346829</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.353447</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.360451</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.367744</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.373949</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.382475</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.388381</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.394593</t>
+          <t>2025-03-15T21:10:27.674776</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.401791</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.407770</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.414234</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.422740</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.433398</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.440562</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.446027</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.452382</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.458354</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.463983</t>
+          <t>2025-03-15T21:10:27.690407</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.472436</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.477176</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.482944</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.488044</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.494881</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.502080</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.509355</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.518605</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.524496</t>
+          <t>2025-03-15T21:10:27.706029</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.531734</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.537838</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.544429</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.550045</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.556279</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.564402</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.570789</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.576246</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.581428</t>
+          <t>2025-03-15T21:10:27.721650</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.587867</t>
+          <t>2025-03-15T21:10:27.737276</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.593854</t>
+          <t>2025-03-15T21:10:27.737276</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.599915</t>
+          <t>2025-03-15T21:10:27.737276</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.606340</t>
+          <t>2025-03-15T21:10:27.737276</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.612537</t>
+          <t>2025-03-15T21:10:27.737276</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.617797</t>
+          <t>2025-03-15T21:10:27.737276</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.624494</t>
+          <t>2025-03-15T21:10:27.737276</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.630635</t>
+          <t>2025-03-15T21:10:27.737276</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.636409</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.641778</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.647908</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.653847</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.662279</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.673401</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.679565</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.685932</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.691633</t>
+          <t>2025-03-15T21:10:27.752944</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.697000</t>
+          <t>2025-03-15T21:10:27.768617</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.704674</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.710557</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.716063</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.721776</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.728120</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.735275</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.741560</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.752599</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.758780</t>
+          <t>2025-03-15T21:10:27.770451</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-15T15:59:19.764733</t>
+          <t>2025-03-15T21:10:27.786130</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.346654</t>
+          <t>2025-03-15T21:55:37.561831</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.346654</t>
+          <t>2025-03-15T21:55:37.561831</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.346654</t>
+          <t>2025-03-15T21:55:37.577428</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.346654</t>
+          <t>2025-03-15T21:55:37.577428</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.346654</t>
+          <t>2025-03-15T21:55:37.577428</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.346654</t>
+          <t>2025-03-15T21:55:37.577428</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.346654</t>
+          <t>2025-03-15T21:55:37.593051</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.593051</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.593051</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.593051</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.593051</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.608687</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.608687</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.624304</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.624304</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.624304</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.362280</t>
+          <t>2025-03-15T21:55:37.624304</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>26096</v>
+        <v>25987</v>
       </c>
       <c r="H19" t="n">
         <v>328</v>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.377900</t>
+          <t>2025-03-15T21:55:37.624304</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>79.5609756097561</v>
+        <v>79.22865853658537</v>
       </c>
     </row>
     <row r="20">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.377900</t>
+          <t>2025-03-15T21:55:37.639927</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.377900</t>
+          <t>2025-03-15T21:55:37.639927</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.377900</t>
+          <t>2025-03-15T21:55:37.639927</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.377900</t>
+          <t>2025-03-15T21:55:37.639927</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.377900</t>
+          <t>2025-03-15T21:55:37.639927</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.377900</t>
+          <t>2025-03-15T21:55:37.655552</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.377900</t>
+          <t>2025-03-15T21:55:37.655552</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.655552</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.655552</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Skopje"]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.655552</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.671178</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.671178</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.671178</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.671178</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.686803</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.393528</t>
+          <t>2025-03-15T21:55:37.686803</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2889,7 +2889,7 @@
         <v>48865</v>
       </c>
       <c r="H36" t="n">
-        <v>1393</v>
+        <v>1356.268077461029</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2918,11 +2918,11 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.409158</t>
+          <t>2025-03-15T21:55:37.686803</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>35.07896625987078</v>
+        <v>36.02901285671827</v>
       </c>
     </row>
     <row r="37">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.409158</t>
+          <t>2025-03-15T21:55:37.686803</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>103940191</v>
+        <v>102334403</v>
       </c>
       <c r="H38" t="n">
         <v>1002450</v>
@@ -3056,11 +3056,11 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.409158</t>
+          <t>2025-03-15T21:55:37.702427</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>103.6861599082249</v>
+        <v>102.0842964736396</v>
       </c>
     </row>
     <row r="39">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.409158</t>
+          <t>2025-03-15T21:55:37.702427</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.409158</t>
+          <t>2025-03-15T21:55:37.702427</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.409158</t>
+          <t>2025-03-15T21:55:37.702427</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.409158</t>
+          <t>2025-03-15T21:55:37.718057</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.409158</t>
+          <t>2025-03-15T21:55:37.718057</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.718057</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.718057</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.733683</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.733683</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.733683</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.733683</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.733683</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>["Helsinki"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.733683</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.424783</t>
+          <t>2025-03-15T21:55:37.749303</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.749303</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.749303</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.749303</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.749303</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.764929</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.764929</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.764929</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.764929</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.780554</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.440398</t>
+          <t>2025-03-15T21:55:37.780554</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.456029</t>
+          <t>2025-03-15T21:55:37.780554</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.456029</t>
+          <t>2025-03-15T21:55:37.780554</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.456029</t>
+          <t>2025-03-15T21:55:37.780554</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4959,7 +4959,7 @@
         <v>36910558</v>
       </c>
       <c r="H66" t="n">
-        <v>456230.4782380175</v>
+        <v>446550</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.456029</t>
+          <t>2025-03-15T21:55:37.796179</t>
         </is>
       </c>
       <c r="O66" t="n">
-        <v>80.90331479507951</v>
+        <v>82.65716717052962</v>
       </c>
     </row>
     <row r="67">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.456029</t>
+          <t>2025-03-15T21:55:37.796179</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.456029</t>
+          <t>2025-03-15T21:55:37.796179</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.456029</t>
+          <t>2025-03-15T21:55:37.796179</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.456029</t>
+          <t>2025-03-15T21:55:37.796179</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.811804</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.811804</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.811804</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.811804</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.811804</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.827959</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.827959</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.843632</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.843632</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.471647</t>
+          <t>2025-03-15T21:55:37.843632</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.487284</t>
+          <t>2025-03-15T21:55:37.843632</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.487284</t>
+          <t>2025-03-15T21:55:37.859257</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.487284</t>
+          <t>2025-03-15T21:55:37.859257</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.487284</t>
+          <t>2025-03-15T21:55:37.859257</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.487284</t>
+          <t>2025-03-15T21:55:37.859257</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.487284</t>
+          <t>2025-03-15T21:55:37.874887</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.487284</t>
+          <t>2025-03-15T21:55:37.874887</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.874887</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.874887</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.890506</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6681,7 +6681,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7132530</v>
+        <v>7154393</v>
       </c>
       <c r="H91" t="n">
         <v>406752</v>
@@ -6713,11 +6713,11 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.890506</t>
         </is>
       </c>
       <c r="O91" t="n">
-        <v>17.53532865234836</v>
+        <v>17.5890788490284</v>
       </c>
     </row>
     <row r="92">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.890506</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.890506</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.906133</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.906133</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.502908</t>
+          <t>2025-03-15T21:55:37.906133</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.906133</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.921760</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.921760</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.921760</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.937383</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>["Port-aux-Fran\u00e7ais"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.937383</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.937383</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.953007</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.518525</t>
+          <t>2025-03-15T21:55:37.953007</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.953007</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.953007</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.953007</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.968638</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.968638</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.984261</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.984261</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.984261</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.534148</t>
+          <t>2025-03-15T21:55:37.999884</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:37.999884</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:37.999884</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:37.999884</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:38.015519</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:38.015519</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:38.015519</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:38.015519</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:38.015519</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:38.031136</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.549773</t>
+          <t>2025-03-15T21:55:38.031136</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.031136</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.046760</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.046760</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.046760</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.062400</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.062400</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.062400</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.062400</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.565402</t>
+          <t>2025-03-15T21:55:38.078010</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.078010</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.078010</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.093632</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.093632</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.093632</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.109259</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.109259</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.109259</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.581027</t>
+          <t>2025-03-15T21:55:38.124968</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.596651</t>
+          <t>2025-03-15T21:55:38.124968</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.596651</t>
+          <t>2025-03-15T21:55:38.124968</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.596651</t>
+          <t>2025-03-15T21:55:38.124968</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.596651</t>
+          <t>2025-03-15T21:55:38.140510</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.596651</t>
+          <t>2025-03-15T21:55:38.140510</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.596651</t>
+          <t>2025-03-15T21:55:38.140510</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.596651</t>
+          <t>2025-03-15T21:55:38.140510</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1701583</v>
+        <v>1704507</v>
       </c>
       <c r="H150" t="n">
         <v>765</v>
@@ -10784,11 +10784,11 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.596651</t>
+          <t>2025-03-15T21:55:38.156135</t>
         </is>
       </c>
       <c r="O150" t="n">
-        <v>2224.291503267974</v>
+        <v>2228.113725490196</v>
       </c>
     </row>
     <row r="151">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.156135</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.156135</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.156135</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.171759</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.171759</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.171759</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.187386</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Western Africa</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.187386</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.612277</t>
+          <t>2025-03-15T21:55:38.187386</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.203013</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.203013</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.203013</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11652,7 +11652,7 @@
         <v>12952209</v>
       </c>
       <c r="H163" t="n">
-        <v>26338</v>
+        <v>26411.79604879642</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -11681,11 +11681,11 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.203013</t>
         </is>
       </c>
       <c r="O163" t="n">
-        <v>491.7688890576354</v>
+        <v>490.3948590270229</v>
       </c>
     </row>
     <row r="164">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.218643</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Bucharest"]</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.218643</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.234262</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.234262</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.627910</t>
+          <t>2025-03-15T21:55:38.234262</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.234262</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.234262</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.249886</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.249886</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.249886</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.249886</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.249886</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12549,7 +12549,7 @@
         <v>31255435</v>
       </c>
       <c r="H176" t="n">
-        <v>807435.5331000228</v>
+        <v>801590</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -12578,11 +12578,11 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.249886</t>
         </is>
       </c>
       <c r="O176" t="n">
-        <v>38.70951143306715</v>
+        <v>38.99179755236467</v>
       </c>
     </row>
     <row r="177">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.643529</t>
+          <t>2025-03-15T21:55:38.265510</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.265510</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.265510</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.281139</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.281139</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.296762</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.296762</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.312388</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.312388</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.659155</t>
+          <t>2025-03-15T21:55:38.312388</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.312388</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.328716</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.328716</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.328716</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.328716</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.344386</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.344386</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.344386</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.674776</t>
+          <t>2025-03-15T21:55:38.344386</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.357508</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.360024</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.360024</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.360024</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.360024</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.360024</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.376308</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.376308</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.376308</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.690407</t>
+          <t>2025-03-15T21:55:38.391982</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.391982</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.391982</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.391982</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.407608</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.407608</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.407608</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.407608</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.407608</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.706029</t>
+          <t>2025-03-15T21:55:38.423245</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.423245</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.423245</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.423245</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.423245</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.438862</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.438862</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.438862</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.438862</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.721650</t>
+          <t>2025-03-15T21:55:38.438862</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.737276</t>
+          <t>2025-03-15T21:55:38.454492</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.737276</t>
+          <t>2025-03-15T21:55:38.454492</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.737276</t>
+          <t>2025-03-15T21:55:38.454492</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.737276</t>
+          <t>2025-03-15T21:55:38.454492</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.737276</t>
+          <t>2025-03-15T21:55:38.454492</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.737276</t>
+          <t>2025-03-15T21:55:38.470115</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.737276</t>
+          <t>2025-03-15T21:55:38.470115</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.737276</t>
+          <t>2025-03-15T21:55:38.470115</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.485744</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.485744</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.485744</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.501357</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.501357</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.501357</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.501357</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.516983</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.752944</t>
+          <t>2025-03-15T21:55:38.516983</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.768617</t>
+          <t>2025-03-15T21:55:38.516983</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.532612</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.532612</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.532612</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.532612</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.532612</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.532612</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.548233</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.548233</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.770451</t>
+          <t>2025-03-15T21:55:38.548233</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-15T21:10:27.786130</t>
+          <t>2025-03-15T21:55:38.548233</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.561831</t>
+          <t>2025-03-17T15:01:22.150453</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.561831</t>
+          <t>2025-03-17T15:01:22.150453</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.577428</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.577428</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.577428</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.577428</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.593051</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.593051</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.593051</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.593051</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.593051</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.608687</t>
+          <t>2025-03-17T15:01:22.166076</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.608687</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.624304</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.624304</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.624304</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.624304</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.624304</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.639927</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.639927</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.639927</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.639927</t>
+          <t>2025-03-17T15:01:22.181699</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.639927</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.655552</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.655552</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.655552</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.655552</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.655552</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.671178</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.671178</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.671178</t>
+          <t>2025-03-17T15:01:22.197323</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.671178</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.686803</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.686803</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2889,7 +2889,7 @@
         <v>48865</v>
       </c>
       <c r="H36" t="n">
-        <v>1356.268077461029</v>
+        <v>1393</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2918,11 +2918,11 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.686803</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>36.02901285671827</v>
+        <v>35.07896625987078</v>
       </c>
     </row>
     <row r="37">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>34232050</v>
+        <v>34918430</v>
       </c>
       <c r="H37" t="n">
         <v>447400</v>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.686803</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>76.51329906124273</v>
+        <v>78.04745194456862</v>
       </c>
     </row>
     <row r="38">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.702427</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.702427</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.702427</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.702427</t>
+          <t>2025-03-17T15:01:22.212953</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.718057</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>["Lima"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.718057</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.718057</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.718057</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.733683</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.733683</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.733683</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.733683</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.733683</t>
+          <t>2025-03-17T15:01:22.228575</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Helsinki"]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.733683</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.749303</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.749303</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.749303</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.749303</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.749303</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.764929</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.764929</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.764929</t>
+          <t>2025-03-17T15:01:22.244198</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.764929</t>
+          <t>2025-03-17T15:01:22.259822</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.780554</t>
+          <t>2025-03-17T15:01:22.259822</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.780554</t>
+          <t>2025-03-17T15:01:22.259822</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.780554</t>
+          <t>2025-03-17T15:01:22.259822</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.780554</t>
+          <t>2025-03-17T15:01:22.259822</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.780554</t>
+          <t>2025-03-17T15:01:22.259822</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.796179</t>
+          <t>2025-03-17T15:01:22.259822</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.796179</t>
+          <t>2025-03-17T15:01:22.259822</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.796179</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.796179</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.796179</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.811804</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.811804</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.811804</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.811804</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.811804</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.827959</t>
+          <t>2025-03-17T15:01:22.275447</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.827959</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.843632</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.843632</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.843632</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.843632</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.859257</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.859257</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.859257</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.859257</t>
+          <t>2025-03-17T15:01:22.291075</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6336,7 +6336,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>27691019</v>
+        <v>27672465</v>
       </c>
       <c r="H86" t="n">
         <v>587041</v>
@@ -6368,11 +6368,11 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.874887</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O86" t="n">
-        <v>47.17050257137065</v>
+        <v>47.13889660177058</v>
       </c>
     </row>
     <row r="87">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.874887</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.874887</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.874887</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.890506</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6681,7 +6681,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7154393</v>
+        <v>7132530</v>
       </c>
       <c r="H91" t="n">
         <v>406752</v>
@@ -6713,11 +6713,11 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.890506</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O91" t="n">
-        <v>17.5890788490284</v>
+        <v>17.53532865234836</v>
       </c>
     </row>
     <row r="92">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.890506</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.890506</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.906133</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.906133</t>
+          <t>2025-03-17T15:01:22.306697</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.906133</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.906133</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.921760</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.921760</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.921760</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.937383</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Port-aux-Fran\u00e7ais"]</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.937383</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.937383</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.953007</t>
+          <t>2025-03-17T15:01:22.322403</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.953007</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.953007</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.953007</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.953007</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.968638</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.968638</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.984261</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.984261</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.984261</t>
+          <t>2025-03-17T15:01:22.337947</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.999884</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.999884</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.999884</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:37.999884</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.015519</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.015519</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.015519</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.015519</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.015519</t>
+          <t>2025-03-17T15:01:22.353573</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.031136</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.031136</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.031136</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.046760</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.046760</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.046760</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.062400</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.062400</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.062400</t>
+          <t>2025-03-17T15:01:22.369200</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.062400</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.078010</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.078010</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.078010</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.093632</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.093632</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.093632</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.109259</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10065,7 +10065,7 @@
         <v>280904</v>
       </c>
       <c r="H140" t="n">
-        <v>4167</v>
+        <v>4052.145306809143</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -10094,11 +10094,11 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.109259</t>
+          <t>2025-03-17T15:01:22.384825</t>
         </is>
       </c>
       <c r="O140" t="n">
-        <v>67.41156707463404</v>
+        <v>69.3222919543321</v>
       </c>
     </row>
     <row r="141">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.109259</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.124968</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.124968</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.124968</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.124968</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.140510</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.140510</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.140510</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.140510</t>
+          <t>2025-03-17T15:01:22.400451</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1704507</v>
+        <v>1701583</v>
       </c>
       <c r="H150" t="n">
         <v>765</v>
@@ -10784,11 +10784,11 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.156135</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O150" t="n">
-        <v>2228.113725490196</v>
+        <v>2224.291503267974</v>
       </c>
     </row>
     <row r="151">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.156135</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.156135</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.156135</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.171759</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.171759</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.171759</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.187386</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.187386</t>
+          <t>2025-03-17T15:01:22.416073</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.187386</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.203013</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.203013</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.203013</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11652,7 +11652,7 @@
         <v>12952209</v>
       </c>
       <c r="H163" t="n">
-        <v>26411.79604879642</v>
+        <v>26338</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -11681,11 +11681,11 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.203013</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O163" t="n">
-        <v>490.3948590270229</v>
+        <v>491.7688890576354</v>
       </c>
     </row>
     <row r="164">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.218643</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.218643</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.234262</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.234262</t>
+          <t>2025-03-17T15:01:22.431698</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.234262</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.234262</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.234262</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.249886</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.249886</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>["Vienna"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.249886</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.249886</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.249886</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Eastern Africa</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.249886</t>
+          <t>2025-03-17T15:01:22.447868</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.265510</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.265510</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.265510</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.281139</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.281139</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.296762</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.296762</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.312388</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.312388</t>
+          <t>2025-03-17T15:01:22.463543</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.312388</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.312388</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.328716</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.328716</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.328716</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.328716</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.344386</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -13722,7 +13722,7 @@
         <v>5458827</v>
       </c>
       <c r="H193" t="n">
-        <v>49037</v>
+        <v>50151.27910342072</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -13751,11 +13751,11 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.344386</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O193" t="n">
-        <v>111.3205742602525</v>
+        <v>108.8472138216643</v>
       </c>
     </row>
     <row r="194">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.344386</t>
+          <t>2025-03-17T15:01:22.479308</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.344386</t>
+          <t>2025-03-17T15:01:22.494995</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.357508</t>
+          <t>2025-03-17T15:01:22.494995</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.360024</t>
+          <t>2025-03-17T15:01:22.494995</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.360024</t>
+          <t>2025-03-17T15:01:22.494995</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.360024</t>
+          <t>2025-03-17T15:01:22.494995</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.360024</t>
+          <t>2025-03-17T15:01:22.494995</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.360024</t>
+          <t>2025-03-17T15:01:22.494995</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.376308</t>
+          <t>2025-03-17T15:01:22.494995</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.376308</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.376308</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.391982</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.391982</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.391982</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.391982</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.407608</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.407608</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.407608</t>
+          <t>2025-03-17T15:01:22.510608</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.407608</t>
+          <t>2025-03-17T15:01:22.526238</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.407608</t>
+          <t>2025-03-17T15:01:22.526238</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.423245</t>
+          <t>2025-03-17T15:01:22.526238</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.423245</t>
+          <t>2025-03-17T15:01:22.526238</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.423245</t>
+          <t>2025-03-17T15:01:22.526238</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.423245</t>
+          <t>2025-03-17T15:01:22.526238</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.423245</t>
+          <t>2025-03-17T15:01:22.526238</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.438862</t>
+          <t>2025-03-17T15:01:22.526238</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.438862</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.438862</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.438862</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.438862</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.454492</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.454492</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.454492</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.454492</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.454492</t>
+          <t>2025-03-17T15:01:22.541869</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.470115</t>
+          <t>2025-03-17T15:01:22.557486</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.470115</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.470115</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.485744</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.485744</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.485744</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.501357</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.501357</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.501357</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.501357</t>
+          <t>2025-03-17T15:01:22.558017</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.516983</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.516983</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.516983</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caribbean</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.532612</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.532612</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.532612</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.532612</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.532612</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.532612</t>
+          <t>2025-03-17T15:01:22.573649</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.548233</t>
+          <t>2025-03-17T15:01:22.589310</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.548233</t>
+          <t>2025-03-17T15:01:22.589310</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.548233</t>
+          <t>2025-03-17T15:01:22.589310</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-15T21:55:38.548233</t>
+          <t>2025-03-17T15:01:22.589310</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.150453</t>
+          <t>2025-03-30T23:30:38.432337</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.150453</t>
+          <t>2025-03-30T23:30:38.432337</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Western Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.432337</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.432337</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.447934</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.447934</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.447934</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.447934</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.447934</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.447934</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1233,7 +1233,7 @@
         <v>11818618</v>
       </c>
       <c r="H12" t="n">
-        <v>163610</v>
+        <v>168140.2475565771</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>72.23652588472588</v>
+        <v>70.29023789216906</v>
       </c>
     </row>
     <row r="13">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.166076</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.463558</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.479183</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.479183</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.181699</t>
+          <t>2025-03-30T23:30:38.479183</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.479183</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.479183</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.479183</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.479183</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.479183</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2077132</v>
+        <v>2113079</v>
       </c>
       <c r="H29" t="n">
         <v>25713</v>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.495496</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>80.78139462528682</v>
+        <v>82.17940341461518</v>
       </c>
     </row>
     <row r="30">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.495496</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.495496</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.197323</t>
+          <t>2025-03-30T23:30:38.495496</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.495496</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.495496</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.511175</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.511175</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>34918430</v>
+        <v>34232050</v>
       </c>
       <c r="H37" t="n">
         <v>447400</v>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.511175</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>78.04745194456862</v>
+        <v>76.51329906124273</v>
       </c>
     </row>
     <row r="38">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.511175</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.511175</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.511175</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.212953</t>
+          <t>2025-03-30T23:30:38.526797</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.526797</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Lima"]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.531930</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.531930</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.531930</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.531930</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.531930</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.542473</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.542473</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.228575</t>
+          <t>2025-03-30T23:30:38.542473</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.542473</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.542473</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.558126</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.558126</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.558126</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.558126</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.558126</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.558126</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.244198</t>
+          <t>2025-03-30T23:30:38.558126</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.259822</t>
+          <t>2025-03-30T23:30:38.573838</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.259822</t>
+          <t>2025-03-30T23:30:38.573838</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.259822</t>
+          <t>2025-03-30T23:30:38.573838</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.259822</t>
+          <t>2025-03-30T23:30:38.573838</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.259822</t>
+          <t>2025-03-30T23:30:38.573838</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.259822</t>
+          <t>2025-03-30T23:30:38.573838</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.259822</t>
+          <t>2025-03-30T23:30:38.589389</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.259822</t>
+          <t>2025-03-30T23:30:38.589389</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.589389</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.589389</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.589389</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.589389</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.589389</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.605011</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.605011</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.605011</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.275447</t>
+          <t>2025-03-30T23:30:38.605011</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.605011</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.605011</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.620642</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.620642</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.620642</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.620642</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.620642</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.620642</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.291075</t>
+          <t>2025-03-30T23:30:38.636250</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6336,7 +6336,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>27672465</v>
+        <v>27691019</v>
       </c>
       <c r="H86" t="n">
         <v>587041</v>
@@ -6368,11 +6368,11 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.636250</t>
         </is>
       </c>
       <c r="O86" t="n">
-        <v>47.13889660177058</v>
+        <v>47.17050257137065</v>
       </c>
     </row>
     <row r="87">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.636250</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.636250</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.636250</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.636250</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.636250</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.651880</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.651880</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.651880</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.306697</t>
+          <t>2025-03-30T23:30:38.651880</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.651880</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.651880</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.667507</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.667507</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.667507</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.667507</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.667507</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.683135</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.322403</t>
+          <t>2025-03-30T23:30:38.683135</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.683135</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.683135</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.683135</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.683135</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.698749</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.698749</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.698749</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.698749</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.337947</t>
+          <t>2025-03-30T23:30:38.698749</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.698749</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.698749</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.714382</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.714382</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.714382</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.714382</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.714382</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.714382</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.353573</t>
+          <t>2025-03-30T23:30:38.730003</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.730003</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.730003</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.730003</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.730003</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.730003</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>["Yaren"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.745626</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.745626</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.745626</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.369200</t>
+          <t>2025-03-30T23:30:38.745626</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.745626</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.745626</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.745626</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.761252</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.761252</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.761252</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.761252</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.761252</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10065,7 +10065,7 @@
         <v>280904</v>
       </c>
       <c r="H140" t="n">
-        <v>4052.145306809143</v>
+        <v>4167</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -10094,11 +10094,11 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.384825</t>
+          <t>2025-03-30T23:30:38.761252</t>
         </is>
       </c>
       <c r="O140" t="n">
-        <v>69.3222919543321</v>
+        <v>67.41156707463404</v>
       </c>
     </row>
     <row r="141">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.761252</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.776884</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.776884</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.776884</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.776884</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.776884</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.792500</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.792500</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.400451</t>
+          <t>2025-03-30T23:30:38.792500</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.792500</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.792500</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.792500</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.792500</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.808131</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.808131</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.808131</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.808131</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.416073</t>
+          <t>2025-03-30T23:30:38.808131</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.808131</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.823751</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.823751</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.823751</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.823751</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.823751</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.823751</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.823751</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.431698</t>
+          <t>2025-03-30T23:30:38.839381</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.839381</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.839381</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.839381</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.839381</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.839381</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Vienna"]</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.855001</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.855001</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.855001</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Eastern Africa</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.447868</t>
+          <t>2025-03-30T23:30:38.855001</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.855001</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.855001</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.855001</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.870626</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.870626</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.870626</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.870626</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.870626</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.463543</t>
+          <t>2025-03-30T23:30:38.870626</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.886263</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.886263</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.886263</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.886263</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.886263</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.886263</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.901875</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -13722,7 +13722,7 @@
         <v>5458827</v>
       </c>
       <c r="H193" t="n">
-        <v>50151.27910342072</v>
+        <v>49037</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -13751,11 +13751,11 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.901875</t>
         </is>
       </c>
       <c r="O193" t="n">
-        <v>108.8472138216643</v>
+        <v>111.3205742602525</v>
       </c>
     </row>
     <row r="194">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.479308</t>
+          <t>2025-03-30T23:30:38.901875</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.494995</t>
+          <t>2025-03-30T23:30:38.901875</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.494995</t>
+          <t>2025-03-30T23:30:38.901875</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -13998,7 +13998,7 @@
         <v>20250834</v>
       </c>
       <c r="H197" t="n">
-        <v>1240192</v>
+        <v>1269488.150370289</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -14027,11 +14027,11 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.494995</t>
+          <t>2025-03-30T23:30:38.901875</t>
         </is>
       </c>
       <c r="O197" t="n">
-        <v>16.32878941325214</v>
+        <v>15.95196772344284</v>
       </c>
     </row>
     <row r="198">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.494995</t>
+          <t>2025-03-30T23:30:38.901875</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.494995</t>
+          <t>2025-03-30T23:30:38.917936</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.494995</t>
+          <t>2025-03-30T23:30:38.917936</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.494995</t>
+          <t>2025-03-30T23:30:38.917936</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.494995</t>
+          <t>2025-03-30T23:30:38.917936</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.917936</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.917936</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.933713</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.934236</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.934236</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.934236</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.934236</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.934236</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.510608</t>
+          <t>2025-03-30T23:30:38.934236</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.526238</t>
+          <t>2025-03-30T23:30:38.949257</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.526238</t>
+          <t>2025-03-30T23:30:38.949257</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.526238</t>
+          <t>2025-03-30T23:30:38.949257</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.526238</t>
+          <t>2025-03-30T23:30:38.949257</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.526238</t>
+          <t>2025-03-30T23:30:38.949257</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.526238</t>
+          <t>2025-03-30T23:30:38.949257</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.526238</t>
+          <t>2025-03-30T23:30:38.949257</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.526238</t>
+          <t>2025-03-30T23:30:38.964926</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>["Mal\u00e9"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.964926</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.964926</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.964926</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.964926</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15858,7 +15858,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>212559409</v>
+        <v>206185707</v>
       </c>
       <c r="H224" t="n">
         <v>8515767</v>
@@ -15890,11 +15890,11 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.964926</t>
         </is>
       </c>
       <c r="O224" t="n">
-        <v>24.960688684883</v>
+        <v>24.21222973808466</v>
       </c>
     </row>
     <row r="225">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.980536</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.980536</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.980536</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.541869</t>
+          <t>2025-03-30T23:30:38.980536</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16199,7 +16199,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.557486</t>
+          <t>2025-03-30T23:30:38.980536</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:38.980536</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:38.996161</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:38.996161</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:38.996161</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:38.996161</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:38.996161</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:38.996161</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:39.011786</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.558017</t>
+          <t>2025-03-30T23:30:39.011786</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.011786</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.011786</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.011786</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.011786</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.011786</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.027412</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.027412</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.027412</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.573649</t>
+          <t>2025-03-30T23:30:39.027412</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.589310</t>
+          <t>2025-03-30T23:30:39.027412</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.589310</t>
+          <t>2025-03-30T23:30:39.027412</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.589310</t>
+          <t>2025-03-30T23:30:39.027412</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-17T15:01:22.589310</t>
+          <t>2025-03-30T23:30:39.043044</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.432337</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.432337</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Western Europe</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.432337</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>["Freetown"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.432337</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1233,7 +1233,7 @@
         <v>11818618</v>
       </c>
       <c r="H12" t="n">
-        <v>168140.2475565771</v>
+        <v>163610</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>70.29023789216906</v>
+        <v>72.23652588472588</v>
       </c>
     </row>
     <row r="13">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>["Porto-Novo"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Western Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2113079</v>
+        <v>2077132</v>
       </c>
       <c r="H29" t="n">
         <v>25713</v>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>82.17940341461518</v>
+        <v>80.78139462528682</v>
       </c>
     </row>
     <row r="30">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.526797</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.526797</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="H68" t="n">
         <v>14000000</v>
@@ -5126,11 +5126,11 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>7.142857142857143e-05</v>
+        <v>7.328571428571429e-05</v>
       </c>
     </row>
     <row r="69">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5649,7 +5649,7 @@
         <v>220892331</v>
       </c>
       <c r="H76" t="n">
-        <v>881912</v>
+        <v>897831.3548002663</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -5678,11 +5678,11 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>250.4698099130072</v>
+        <v>246.0287556443606</v>
       </c>
     </row>
     <row r="77">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8202,7 +8202,7 @@
         <v>3280815</v>
       </c>
       <c r="H113" t="n">
-        <v>51209</v>
+        <v>50180.73081625393</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -8231,11 +8231,11 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O113" t="n">
-        <v>64.06715616395556</v>
+        <v>65.3799764697193</v>
       </c>
     </row>
     <row r="114">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Yaren"]</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>510713</v>
+        <v>517714</v>
       </c>
       <c r="H130" t="n">
         <v>266000</v>
@@ -9404,11 +9404,11 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O130" t="n">
-        <v>1.919973684210526</v>
+        <v>1.946293233082707</v>
       </c>
     </row>
     <row r="131">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -13998,7 +13998,7 @@
         <v>20250834</v>
       </c>
       <c r="H197" t="n">
-        <v>1269488.150370289</v>
+        <v>1240192</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -14027,11 +14027,11 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O197" t="n">
-        <v>15.95196772344284</v>
+        <v>16.32878941325214</v>
       </c>
     </row>
     <row r="198">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.933713</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Western Asia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Mal\u00e9"]</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15858,7 +15858,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>206185707</v>
+        <v>212559409</v>
       </c>
       <c r="H224" t="n">
         <v>8515767</v>
@@ -15890,11 +15890,11 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O224" t="n">
-        <v>24.21222973808466</v>
+        <v>24.960688684883</v>
       </c>
     </row>
     <row r="225">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16199,7 +16199,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.872025</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.872025</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.872025</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.043044</t>
+          <t>2025-03-31T00:39:25.872025</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Freetown"]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Porto-Novo"]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Western Europe</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>106766</v>
+        <v>109436</v>
       </c>
       <c r="H47" t="n">
         <v>180</v>
@@ -3677,11 +3677,11 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>593.1444444444444</v>
+        <v>607.9777777777778</v>
       </c>
     </row>
     <row r="48">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1026</v>
+        <v>1000</v>
       </c>
       <c r="H68" t="n">
         <v>14000000</v>
@@ -5126,11 +5126,11 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>7.328571428571429e-05</v>
+        <v>7.142857142857143e-05</v>
       </c>
     </row>
     <row r="69">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5649,7 +5649,7 @@
         <v>220892331</v>
       </c>
       <c r="H76" t="n">
-        <v>897831.3548002663</v>
+        <v>881912</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -5678,11 +5678,11 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>246.0287556443606</v>
+        <v>250.4698099130072</v>
       </c>
     </row>
     <row r="77">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>["Mamoudzou"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8202,7 +8202,7 @@
         <v>3280815</v>
       </c>
       <c r="H113" t="n">
-        <v>50180.73081625393</v>
+        <v>51209</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -8231,11 +8231,11 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O113" t="n">
-        <v>65.3799764697193</v>
+        <v>64.06715616395556</v>
       </c>
     </row>
     <row r="114">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>517714</v>
+        <v>510713</v>
       </c>
       <c r="H130" t="n">
         <v>266000</v>
@@ -9404,11 +9404,11 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O130" t="n">
-        <v>1.946293233082707</v>
+        <v>1.919973684210526</v>
       </c>
     </row>
     <row r="131">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9651,7 +9651,7 @@
         <v>69799978</v>
       </c>
       <c r="H134" t="n">
-        <v>513120</v>
+        <v>513102.2526792237</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -9680,11 +9680,11 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O134" t="n">
-        <v>136.030515279077</v>
+        <v>136.0352203396715</v>
       </c>
     </row>
     <row r="135">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15099,7 +15099,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9537642</v>
+        <v>9294356</v>
       </c>
       <c r="H213" t="n">
         <v>143100</v>
@@ -15131,11 +15131,11 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O213" t="n">
-        <v>66.65018867924529</v>
+        <v>64.95007686932215</v>
       </c>
     </row>
     <row r="214">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>["Valletta"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Western Asia</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17034,7 +17034,7 @@
         <v>14862927</v>
       </c>
       <c r="H241" t="n">
-        <v>390757</v>
+        <v>388670.346818461</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -17063,11 +17063,11 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O241" t="n">
-        <v>38.03623991380832</v>
+        <v>38.24044494688999</v>
       </c>
     </row>
     <row r="242">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.872025</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.872025</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.872025</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.872025</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.565222</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.565222</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.565222</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.565222</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.581230</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.581230</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.581230</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caribbean</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.581230</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6871287</v>
+        <v>7001762</v>
       </c>
       <c r="H25" t="n">
         <v>1759540</v>
@@ -2159,11 +2159,11 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>3.905161007990725</v>
+        <v>3.979313911590529</v>
       </c>
     </row>
     <row r="26">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.675026</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.675026</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.675026</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.675026</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.690652</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.690652</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.690652</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.690652</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>109436</v>
+        <v>106766</v>
       </c>
       <c r="H47" t="n">
         <v>180</v>
@@ -3677,11 +3677,11 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.706279</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>607.9777777777778</v>
+        <v>593.1444444444444</v>
       </c>
     </row>
     <row r="48">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.706279</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.706279</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.706279</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Northern Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4062,7 +4062,7 @@
         <v>2072</v>
       </c>
       <c r="H53" t="n">
-        <v>135</v>
+        <v>133.505341239138</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -4091,11 +4091,11 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>15.34814814814815</v>
+        <v>15.51997830774862</v>
       </c>
     </row>
     <row r="54">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.737527</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.737527</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.737527</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.737527</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.768779</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.768779</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>["Amsterdam"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.768779</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.768779</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.800026</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.800026</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.800026</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.800026</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Mamoudzou"]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.831294</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.831294</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.831294</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.831294</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>["Mbabane"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>366425</v>
+        <v>367830</v>
       </c>
       <c r="H124" t="n">
         <v>103000</v>
@@ -8990,11 +8990,11 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O124" t="n">
-        <v>3.55752427184466</v>
+        <v>3.571165048543689</v>
       </c>
     </row>
     <row r="125">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9651,7 +9651,7 @@
         <v>69799978</v>
       </c>
       <c r="H134" t="n">
-        <v>513102.2526792237</v>
+        <v>513120</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -9680,11 +9680,11 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O134" t="n">
-        <v>136.0352203396715</v>
+        <v>136.030515279077</v>
       </c>
     </row>
     <row r="135">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.034406</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.034406</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.034406</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.034406</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12066,7 +12066,7 @@
         <v>97338583</v>
       </c>
       <c r="H169" t="n">
-        <v>331212</v>
+        <v>323639.1380288619</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O169" t="n">
-        <v>293.8860397570136</v>
+        <v>300.7627062438889</v>
       </c>
     </row>
     <row r="170">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.097711</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.097711</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.097711</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.097711</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15099,7 +15099,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9294356</v>
+        <v>9537642</v>
       </c>
       <c r="H213" t="n">
         <v>143100</v>
@@ -15131,11 +15131,11 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O213" t="n">
-        <v>64.95007686932215</v>
+        <v>66.65018867924529</v>
       </c>
     </row>
     <row r="214">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Valletta"]</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.255082</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.255082</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.255082</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.255082</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17034,7 +17034,7 @@
         <v>14862927</v>
       </c>
       <c r="H241" t="n">
-        <v>388670.346818461</v>
+        <v>390757</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -17063,11 +17063,11 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O241" t="n">
-        <v>38.24044494688999</v>
+        <v>38.03623991380832</v>
       </c>
     </row>
     <row r="242">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caribbean</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.565222</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.565222</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.565222</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.565222</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.581230</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.581230</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.581230</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.581230</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.404795</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.404795</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.404795</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>7001762</v>
+        <v>6871287</v>
       </c>
       <c r="H25" t="n">
         <v>1759540</v>
@@ -2159,11 +2159,11 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>3.979313911590529</v>
+        <v>3.905161007990725</v>
       </c>
     </row>
     <row r="26">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caribbean</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.675026</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.675026</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.675026</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.675026</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.690652</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.690652</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.690652</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.690652</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.706279</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.706279</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.706279</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.706279</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Northern Europe</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4062,7 +4062,7 @@
         <v>2072</v>
       </c>
       <c r="H53" t="n">
-        <v>133.505341239138</v>
+        <v>135</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -4091,11 +4091,11 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>15.51997830774862</v>
+        <v>15.34814814814815</v>
       </c>
     </row>
     <row r="54">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.737527</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.737527</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.737527</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.737527</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.768779</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.768779</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Amsterdam"]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.768779</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.768779</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.800026</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.800026</t>
+          <t>2025-04-06T02:22:39.529802</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.800026</t>
+          <t>2025-04-06T02:22:39.529802</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.800026</t>
+          <t>2025-04-06T02:22:39.529802</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.529802</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>["Mamoudzou"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.540435</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.540962</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.540962</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.831294</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.831294</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.831294</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.831294</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Mbabane"]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -6750,7 +6750,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6486201</v>
+        <v>6487125</v>
       </c>
       <c r="H92" t="n">
         <v>21041</v>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O92" t="n">
-        <v>308.2648638372701</v>
+        <v>308.3087780999002</v>
       </c>
     </row>
     <row r="93">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>["Madrid"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>367830</v>
+        <v>366425</v>
       </c>
       <c r="H124" t="n">
         <v>103000</v>
@@ -8990,11 +8990,11 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O124" t="n">
-        <v>3.571165048543689</v>
+        <v>3.55752427184466</v>
       </c>
     </row>
     <row r="125">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10617,7 +10617,7 @@
         <v>26545864</v>
       </c>
       <c r="H148" t="n">
-        <v>475442</v>
+        <v>484234.1940988947</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -10646,11 +10646,11 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O148" t="n">
-        <v>55.83407439813899</v>
+        <v>54.82030043210571</v>
       </c>
     </row>
     <row r="149">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>586634</v>
+        <v>582362</v>
       </c>
       <c r="H151" t="n">
         <v>163820</v>
@@ -10853,11 +10853,11 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O151" t="n">
-        <v>3.580966914906605</v>
+        <v>3.55488951287999</v>
       </c>
     </row>
     <row r="152">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.034406</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.034406</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.034406</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.034406</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12066,7 +12066,7 @@
         <v>97338583</v>
       </c>
       <c r="H169" t="n">
-        <v>323639.1380288619</v>
+        <v>331212</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O169" t="n">
-        <v>300.7627062438889</v>
+        <v>293.8860397570136</v>
       </c>
     </row>
     <row r="170">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.097711</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.097711</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.097711</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.097711</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Northern Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13929,7 +13929,7 @@
         <v>2617820</v>
       </c>
       <c r="H196" t="n">
-        <v>33846</v>
+        <v>33124.97145506841</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -13958,11 +13958,11 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O196" t="n">
-        <v>77.3450333865154</v>
+        <v>79.0285964034982</v>
       </c>
     </row>
     <row r="197">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.811143</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.255082</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.255082</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.255082</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.255082</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/cleaned_data.xlsx
+++ b/src/static/xlsx/cleaned_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.404795</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.404795</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.404795</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.662597</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.662597</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.662597</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.662597</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.740753</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.529802</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.529802</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.529802</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.529802</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Mamoudzou"]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.540435</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.540962</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.540962</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -6750,7 +6750,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6487125</v>
+        <v>6486201</v>
       </c>
       <c r="H92" t="n">
         <v>21041</v>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O92" t="n">
-        <v>308.3087780999002</v>
+        <v>308.2648638372701</v>
       </c>
     </row>
     <row r="93">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.788681</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.788681</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.788681</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Madrid"]</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2100126</v>
+        <v>2099235</v>
       </c>
       <c r="H116" t="n">
         <v>20273</v>
@@ -8438,11 +8438,11 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O116" t="n">
-        <v>103.5922655749026</v>
+        <v>103.5483154935135</v>
       </c>
     </row>
     <row r="117">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>["Saint-Pierre"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -10617,7 +10617,7 @@
         <v>26545864</v>
       </c>
       <c r="H148" t="n">
-        <v>484234.1940988947</v>
+        <v>475442</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -10646,11 +10646,11 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O148" t="n">
-        <v>54.82030043210571</v>
+        <v>55.83407439813899</v>
       </c>
     </row>
     <row r="149">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>582362</v>
+        <v>586634</v>
       </c>
       <c r="H151" t="n">
         <v>163820</v>
@@ -10853,11 +10853,11 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O151" t="n">
-        <v>3.55488951287999</v>
+        <v>3.580966914906605</v>
       </c>
     </row>
     <row r="152">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Southeast Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Southern Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Northern Europe</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>["Seoul"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -13653,7 +13653,7 @@
         <v>300</v>
       </c>
       <c r="H192" t="n">
-        <v>34.2</v>
+        <v>34.80924866606932</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -13682,11 +13682,11 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O192" t="n">
-        <v>8.771929824561402</v>
+        <v>8.618399175401571</v>
       </c>
     </row>
     <row r="193">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -13929,7 +13929,7 @@
         <v>2617820</v>
       </c>
       <c r="H196" t="n">
-        <v>33124.97145506841</v>
+        <v>33846</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -13958,11 +13958,11 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O196" t="n">
-        <v>79.0285964034982</v>
+        <v>77.3450333865154</v>
       </c>
     </row>
     <row r="197">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:53.007438</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:53.007438</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:53.007438</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:53.007438</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.811143</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -17100,7 +17100,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>38659</v>
+        <v>39039</v>
       </c>
       <c r="H242" t="n">
         <v>53</v>
@@ -17132,11 +17132,11 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O242" t="n">
-        <v>729.4150943396227</v>
+        <v>736.5849056603773</v>
       </c>
     </row>
     <row r="243">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.116809</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -17586,7 +17586,7 @@
         <v>5084300</v>
       </c>
       <c r="H249" t="n">
-        <v>270467</v>
+        <v>268208.9349268354</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -17615,11 +17615,11 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.116809</t>
         </is>
       </c>
       <c r="O249" t="n">
-        <v>18.79822677073358</v>
+        <v>18.95649002665383</v>
       </c>
     </row>
     <row r="250">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.116809</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.116809</t>
         </is>
       </c>
       <c r="O251" t="n">
